--- a/resources/experiment 1/predictions/single/LinearRegression/QALY.xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/QALY.xlsx
@@ -463,7 +463,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>24.17840081841339</v>
+        <v>24.17840081841338</v>
       </c>
       <c r="B3" t="n">
         <v>19.73202493766061</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>26.12148538722555</v>
+        <v>26.12148538722554</v>
       </c>
       <c r="B5" t="n">
         <v>20.62347071903264</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.074325186023311</v>
+        <v>7.074325186023312</v>
       </c>
       <c r="B8" t="n">
-        <v>2.464458261345722</v>
+        <v>2.464458261345721</v>
       </c>
       <c r="C8" t="n">
         <v>11.58527153332284</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8.04067327432255</v>
+        <v>8.040673274322552</v>
       </c>
       <c r="B10" t="n">
-        <v>2.93646450264001</v>
+        <v>2.936464502640007</v>
       </c>
       <c r="C10" t="n">
         <v>13.13205842257881</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16.3975697804432</v>
+        <v>16.39756978044321</v>
       </c>
       <c r="B11" t="n">
         <v>10.3043429272388</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>13.09266030707619</v>
+        <v>13.0926603070762</v>
       </c>
       <c r="B13" t="n">
-        <v>6.435364428063445</v>
+        <v>6.435364428063443</v>
       </c>
       <c r="C13" t="n">
         <v>19.74602362118654</v>
@@ -587,7 +587,7 @@
         <v>14.26194099961008</v>
       </c>
       <c r="B14" t="n">
-        <v>8.133850557003978</v>
+        <v>8.133850557003976</v>
       </c>
       <c r="C14" t="n">
         <v>20.24702324861008</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>28.06456995603771</v>
+        <v>28.0645699560377</v>
       </c>
       <c r="B15" t="n">
         <v>21.51491650040467</v>
@@ -609,7 +609,7 @@
         <v>22.81657591385854</v>
       </c>
       <c r="B16" t="n">
-        <v>16.75449221985728</v>
+        <v>16.75449221985729</v>
       </c>
       <c r="C16" t="n">
         <v>28.38624192524035</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>22.62749449924214</v>
+        <v>22.62749449924213</v>
       </c>
       <c r="B17" t="n">
         <v>15.45792339725564</v>
@@ -672,13 +672,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9.010484160026349</v>
+        <v>9.010484160026353</v>
       </c>
       <c r="B22" t="n">
-        <v>3.390948510195448</v>
+        <v>3.390948510195445</v>
       </c>
       <c r="C22" t="n">
-        <v>14.66400891466684</v>
+        <v>14.66400891466685</v>
       </c>
     </row>
     <row r="23">
@@ -708,7 +708,7 @@
         <v>20.87522274374866</v>
       </c>
       <c r="B25" t="n">
-        <v>15.85428532161583</v>
+        <v>15.85428532161584</v>
       </c>
       <c r="C25" t="n">
         <v>25.32975913964826</v>
@@ -730,7 +730,7 @@
         <v>15.03920767329292</v>
       </c>
       <c r="B27" t="n">
-        <v>7.309287975696622</v>
+        <v>7.30928797569662</v>
       </c>
       <c r="C27" t="n">
         <v>22.78025181102673</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10.17630205515567</v>
+        <v>10.17630205515568</v>
       </c>
       <c r="B32" t="n">
-        <v>5.10695687287483</v>
+        <v>5.106956872874828</v>
       </c>
       <c r="C32" t="n">
         <v>15.17984493925833</v>
@@ -796,7 +796,7 @@
         <v>14.2602096009078</v>
       </c>
       <c r="B33" t="n">
-        <v>8.142611673873404</v>
+        <v>8.1426116738734</v>
       </c>
       <c r="C33" t="n">
         <v>20.25444144719405</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>26.90221485831295</v>
+        <v>26.90221485831294</v>
       </c>
       <c r="B37" t="n">
         <v>19.78138590398643</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>19.32085362717284</v>
+        <v>19.32085362717285</v>
       </c>
       <c r="B45" t="n">
         <v>11.59770601494971</v>
@@ -939,7 +939,7 @@
         <v>12.32405062690476</v>
       </c>
       <c r="B46" t="n">
-        <v>7.216121425023677</v>
+        <v>7.216121425023676</v>
       </c>
       <c r="C46" t="n">
         <v>17.17570406585005</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9.987220640539272</v>
+        <v>9.987220640539274</v>
       </c>
       <c r="B47" t="n">
-        <v>3.810388050273188</v>
+        <v>3.810388050273184</v>
       </c>
       <c r="C47" t="n">
         <v>16.16628661241899</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>26.89875206090839</v>
+        <v>26.89875206090838</v>
       </c>
       <c r="B50" t="n">
         <v>19.79890813772528</v>
@@ -994,7 +994,7 @@
         <v>24.18186361581795</v>
       </c>
       <c r="B51" t="n">
-        <v>19.71450270392176</v>
+        <v>19.71450270392177</v>
       </c>
       <c r="C51" t="n">
         <v>27.87112708516734</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>25.92894117520459</v>
+        <v>25.92894117520458</v>
       </c>
       <c r="B55" t="n">
         <v>19.34442413016984</v>
@@ -1049,7 +1049,7 @@
         <v>13.28693591779944</v>
       </c>
       <c r="B56" t="n">
-        <v>7.705649900056814</v>
+        <v>7.705649900056812</v>
       </c>
       <c r="C56" t="n">
         <v>18.73732735227397</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>10.17803345385795</v>
+        <v>10.17803345385796</v>
       </c>
       <c r="B57" t="n">
-        <v>5.098195756005405</v>
+        <v>5.098195756005404</v>
       </c>
       <c r="C57" t="n">
         <v>15.17242674067436</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>15.43295309084624</v>
+        <v>15.43295309084625</v>
       </c>
       <c r="B59" t="n">
         <v>9.823575569075086</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>29.03784363914607</v>
+        <v>29.03784363914606</v>
       </c>
       <c r="B60" t="n">
         <v>21.95187827422125</v>
@@ -1104,7 +1104,7 @@
         <v>15.23348328401616</v>
       </c>
       <c r="B61" t="n">
-        <v>8.579573447689992</v>
+        <v>8.57957344768999</v>
       </c>
       <c r="C61" t="n">
         <v>21.77155554211415</v>
@@ -1126,7 +1126,7 @@
         <v>17.17656785282832</v>
       </c>
       <c r="B63" t="n">
-        <v>9.471019229062017</v>
+        <v>9.471019229062016</v>
       </c>
       <c r="C63" t="n">
         <v>24.82062012912227</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>29.03957503784835</v>
+        <v>29.03957503784834</v>
       </c>
       <c r="B64" t="n">
         <v>21.94311715735183</v>
@@ -1145,10 +1145,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>9.208222568154154</v>
+        <v>9.208222568154156</v>
       </c>
       <c r="B65" t="n">
-        <v>4.643711748449967</v>
+        <v>4.643711748449966</v>
       </c>
       <c r="C65" t="n">
         <v>13.64047624858632</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>9.98202644443243</v>
+        <v>9.982026444432432</v>
       </c>
       <c r="B69" t="n">
-        <v>3.836671400881462</v>
+        <v>3.836671400881459</v>
       </c>
       <c r="C69" t="n">
         <v>16.18854120817091</v>
